--- a/flash_cards/math/6/flash_data.xlsx
+++ b/flash_cards/math/6/flash_data.xlsx
@@ -22,49 +22,49 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
-    <t xml:space="preserve">Св-во числовых рядов : принцип локализации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Св-во числовых рядов : линейность</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Св-во числовых рядов : необходимое условие сходимости</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Св-во числовых рядов : группировка слагаемых ряда</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Док-во свойства группировки слагаемых ряда</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Критерий Коши для сходимости ряда</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Df: Абсолютная сходимость. Док-во.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Следствие абсолютной сходимости. Док-во</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Df: Условная сходимость</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Признак сходимости знакопостоянного ряда. Док-во</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Th: Признак сравнения для знакопостоянных рядов. Док-во</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Th: Равносильность знакопостоянных рядов. Док-во</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Th: Предел отношения для знакопостоянных рядов. Док-во</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Th: Признак Коши для знакопостоянных рядов. Док-во</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Теорема: Признак Д'Аламбера для числовых рядов</t>
+    <t xml:space="preserve">Теорема: принцип локализации для числовых рядов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теорема : свойство линейности числових рядов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теорема: необходимое условие сходимости числовых рядов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теорема: свойство о группировках числовых рядов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Доказательство свойства о группировках числовых рядов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теорема: Критерий Коши сходимости ряда</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Определение: Абсолютная сходимость числового ряда</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лемма об абсолютной сходимости</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Опредление: Условная сходимость числового ряда</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лемма: Сходимость знакопостоянного ряда</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теорема: Признак сравнения знакопостоянных рядов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теорема: Признак сравнения знакопостоянных рядов через О большое</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теорема: Признак сравнения знакопостоянных рядов через предел отношения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теорема: Признак Коши сходимости знакопостоянных рядов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теорема: Признак Д'Аламбера сходимости числовых рядов</t>
   </si>
   <si>
     <t xml:space="preserve">Теорема: Интегральный-признак Коши-Маклорена</t>
@@ -73,16 +73,16 @@
     <t xml:space="preserve">Лемма: Преобразование Абеля</t>
   </si>
   <si>
-    <t xml:space="preserve">Теорема: Признак Дирихле</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Теорема: Признак Абеля</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Теорема: Признак Лейбница</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Престановка</t>
+    <t xml:space="preserve">Теорема: Признак Дирихле для числовых рядов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теорема: Признак Абеля для числовых рядов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теорема: Признак Лейбница для числовых рядов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Определение: Перестановка числового ряда</t>
   </si>
   <si>
     <t xml:space="preserve">Теорема о перестановке абсолютно сходящегося ряда</t>
@@ -109,16 +109,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -170,12 +173,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -185,15 +188,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15:A23"/>
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="68.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
